--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3383051.75558843</v>
+        <v>3380675.128641065</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>1.782072264242131</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>24.93814337082596</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882139</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>24.55279487175544</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473621</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>20.45259469799582</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506633</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994143001</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.713578732508</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.751061792096</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>861.4853631853459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
-        <v>475.6971105871017</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>468.7516098378982</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>53.04685956218708</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145204</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1845.589903121308</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>1676.653720193401</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>1526.537080781065</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>1378.623987198672</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2537.14928459124</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2248.030947095078</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>2248.030947095078</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>2248.030947095078</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>2248.030947095078</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>2027.238367951548</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854568</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450451</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478915</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>768.6303371471284</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.6303371471284</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1392.8084527056</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1138.123964499713</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>848.7067944627527</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>620.7172435647353</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.7172435647353</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191924</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.71788640035</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639637</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,16 +5185,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6130,19 +6130,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566572</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.367239230969981e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778546</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707394</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707395</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707373</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707329</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707383</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707345</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695345</v>
+        <v>-600661.6899695346</v>
       </c>
       <c r="C6" t="n">
-        <v>514090.0936063848</v>
+        <v>514090.0936063849</v>
       </c>
       <c r="D6" t="n">
         <v>514090.0936063848</v>
       </c>
       <c r="E6" t="n">
-        <v>110926.5437758451</v>
+        <v>110891.8058504096</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003906</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="J6" t="n">
-        <v>450806.8075904083</v>
+        <v>450772.0696649727</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.985400391</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.9854003905</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="M6" t="n">
-        <v>485804.6916714641</v>
+        <v>485769.9537460286</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003906</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749552</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,19 +26969,19 @@
         <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>299.2364802981633</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>195.810552626386</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902551</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9702034648355</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.8231930236454</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>265.7745594232048</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>485.9276108700249</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>466.5925882502527</v>
+        <v>346.9084613860373</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>270.4557004614713</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>550.5977692975237</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065831</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820405</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,7 +35264,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556946</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>332.6181808359224</v>
+        <v>212.934053971707</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>136.4812930471411</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>416.6233618831934</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
